--- a/biology/Botanique/Jean-Noël_Capart/Jean-Noël_Capart.xlsx
+++ b/biology/Botanique/Jean-Noël_Capart/Jean-Noël_Capart.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jean-No%C3%ABl_Capart</t>
+          <t>Jean-Noël_Capart</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean-Noël Capart est un paysagiste et urbaniste d'origine belge.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jean-No%C3%ABl_Capart</t>
+          <t>Jean-Noël_Capart</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jean-Noël Capart est diplômé par l’Athenaeum de Lausanne en 1962. Puis il suit une formation à l'université de Californie à Berkeley en Urban Design puis d’urbaniste en Belgique[1]. Il est le fondateur de la société JNC International[2] en 1968, à Bruxelles.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean-Noël Capart est diplômé par l’Athenaeum de Lausanne en 1962. Puis il suit une formation à l'université de Californie à Berkeley en Urban Design puis d’urbaniste en Belgique. Il est le fondateur de la société JNC International en 1968, à Bruxelles.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jean-No%C3%ABl_Capart</t>
+          <t>Jean-Noël_Capart</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,9 +556,11 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le parc de la Deûle, réalisé en 2005 en collaboration avec Jacques Simon et Yves Hubert. Le parc a reçu le prix du Paysage 2006[3],[4] ;
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le parc de la Deûle, réalisé en 2005 en collaboration avec Jacques Simon et Yves Hubert. Le parc a reçu le prix du Paysage 2006, ;
 MOSAÏC, réalisé en 2004 en collaboration avec Jacques Simon et Yves Hubert, c'est le premier jardin à thème du Nord-Pas-de-Calais. Le jardin des cultures propose une déambulation à la découverte des diversités des habitants de la métropole lilloise ;
 Le jardin des Gogottes en 1995 à Guyancourt dans les Yvelines. Le jardin accueille des Gogottes, œuvre du sculpteur Philolaos Tloupas ;
 Restauration du Parc Josaphat en étroite collaboration avec Marc Molter et Isabelle Bassette ;
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Jean-No%C3%ABl_Capart</t>
+          <t>Jean-Noël_Capart</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,7 +592,9 @@
           <t>Orateur</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">En 2008, à l'invitation de Bernard Blareau, il accepte de participer à la première rencontre des « métiers du paysage - Le renouveau du paysage » à Charleroi comme orateur avec le sujet : « Le rôle de l'architecte paysagiste dans une équipe pluridisciplinaire communale et en qualité de conseiller indépendant ! ».
 </t>
